--- a/Data2018.xlsx
+++ b/Data2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirazied/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirazied/Desktop/westlakes internship/Calculated Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Month</t>
   </si>
@@ -65,20 +65,23 @@
     <t>December</t>
   </si>
   <si>
-    <t>Manchester CO2e</t>
-  </si>
-  <si>
-    <t>Preston CO2e</t>
-  </si>
-  <si>
-    <t>Whitehaven CO2e</t>
+    <t>Manchester Electricity</t>
+  </si>
+  <si>
+    <t>Preston Electricity</t>
+  </si>
+  <si>
+    <t>Whitehaven Electricity</t>
+  </si>
+  <si>
+    <t>Flight Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +110,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,11 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,21 +461,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF700F71-A7EA-8345-992F-F8ECB65BE3D5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,8 +488,11 @@
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,8 +505,11 @@
       <c r="D2">
         <v>317.03840000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -502,8 +522,11 @@
       <c r="D3">
         <v>347.60996</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,8 +539,11 @@
       <c r="D4">
         <v>387.23975999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -530,8 +556,11 @@
       <c r="D5">
         <v>337.13637</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>22562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,8 +573,11 @@
       <c r="D6">
         <v>302.31876</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>20204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,8 +590,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -572,8 +607,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>16088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,8 +624,11 @@
       <c r="D9">
         <v>546.67579999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -600,8 +641,11 @@
       <c r="D10">
         <v>447.18432000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -614,8 +658,11 @@
       <c r="D11">
         <v>103.7102</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -628,8 +675,11 @@
       <c r="D12">
         <v>596.94888000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -641,6 +691,9 @@
       </c>
       <c r="D13">
         <v>457.02800000000002</v>
+      </c>
+      <c r="E13">
+        <v>10832</v>
       </c>
     </row>
   </sheetData>
